--- a/data/MuTualTest-starts.xlsx
+++ b/data/MuTualTest-starts.xlsx
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 4, 4, 4, 4]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, -1]</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 4, 4, 4, 4]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 4, 4, 4, 4]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 4, 4, 4, 4]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, -1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -26786,7 +26786,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, -1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -26846,7 +26846,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, -1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -26906,7 +26906,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, -1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -27806,7 +27806,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 4]</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -32186,7 +32186,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, -1]</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
